--- a/biology/Botanique/Araceae/Araceae.xlsx
+++ b/biology/Botanique/Araceae/Araceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Araceae (Aracées) sont une famille de plantes qui comprend quelque 3 500 espèces réparties en environ 139 genres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Araceae (Aracées) sont une famille de plantes qui comprend quelque 3 500 espèces réparties en environ 139 genres.
 Ce sont des plantes monocotylédones, arbustes ou plantes herbacées, parfois arborescentes des régions subtropicales, tropicales, et, en nombre réduit, des régions tempérées.
 Appartient à cette famille l'arum titan (Amorphophallus titanum), originaire de Sumatra, la plus grosse inflorescence de cette famille. On peut citer en France le gouet tacheté (Arum maculatum). 
 </t>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Arum issu du latin, le terme grec ἄρον / áron désignant la même plante[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Arum issu du latin, le terme grec ἄρον / áron désignant la même plante.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quelques espèces du genre Acorus, initialement placées dans la famille des Aracées, en ont été récemment retirées et placées dans celle des Acoraceae. Ces plantes de zones uliginaires sont actuellement considérées comme les monocotylées les plus primitives.
 La classification phylogénétique incorpore les Lemnaceae (les « lentilles d'eau »), dans cette famille. Ces plantes très simplifiées, qui n’ont que quelques feuilles minuscules, voire l'absence de racines, possèdent une inflorescence réduite à l’extrême, qui n’est constituée que de deux ou trois fleurs, avec uniquement une étamine ou un pistil.
@@ -576,7 +592,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur inflorescence est typique, constituée d'un spadice (axe d'inflorescence), où sont placées de minuscules fleurs, et d'une large bractée, dite spathe. Certaines espèces (ex : Anthurium ou Zantedeschia aethiopica, l'arum blanc des fleuristes) ont un spadice recouvert de fleurs sur toute sa longueur. La spathe est soit complètement étalée (Anthurium) soit repliée en forme de cornet ; sa portion inférieure protégeant ainsi la base du spadice (Zantedeschia).
 Dans le genre Arum, les fleurs ne sont présentes que sur la partie inférieure du spadice, et cachées dans un repli de la spathe. Quand les fleurs femelles sont réceptives, la partie supérieure du spadice émet un parfum qui attire les insectes pollinisateurs. Certaines espèces comme Arum creticum ont une odeur agréable. D'autres, pollinisées par les mouches ou des insectes nécrophages sentent la viande avariée ou le fumier. Un groupe de fleurs stériles filamenteuses présent à hauteur d'un rétrécissement de la spathe fonctionne comme une trappe. Il laisse entrer les insectes couverts de pollen provenant d'une autre inflorescence et les retient prisonniers pour qu'ils assurent la fécondation. Les fleurs mâles s'ouvrent ensuite. Les fleurs filamenteuses se flétrissent, libérant alors les insectes couverts de pollen, qui pourront, en visitant une plante voisine, assurer une pollinisation croisée.
@@ -611,11 +629,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usage ornemental
-De nombreuses espèces de cette famille sont utilisées comme plantes ornementales et d'appartement (genres Anthurium, Dieffenbachia, Monstera). 
-Usage alimentaire
-Rares sont celles cultivées à des fins alimentaires, on peut citer le taro, une plante du genre Colocasia, le taro géant des marais (genre Cyrtosperma), le faux philodendron Monstera deliciosa ou le konjac. Pour Sauromatum, voir Typhonium.
-Les feuilles et/ou rhizomes de quelques espèces sont (ou ont été) consommées, après préparation pour les rendre comestibles. Colocasia esculenta est cultivée pour son tubercule[3].
+          <t>Usage ornemental</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses espèces de cette famille sont utilisées comme plantes ornementales et d'appartement (genres Anthurium, Dieffenbachia, Monstera). 
 </t>
         </is>
       </c>
@@ -641,13 +661,56 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Usage alimentaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rares sont celles cultivées à des fins alimentaires, on peut citer le taro, une plante du genre Colocasia, le taro géant des marais (genre Cyrtosperma), le faux philodendron Monstera deliciosa ou le konjac. Pour Sauromatum, voir Typhonium.
+Les feuilles et/ou rhizomes de quelques espèces sont (ou ont été) consommées, après préparation pour les rendre comestibles. Colocasia esculenta est cultivée pour son tubercule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Araceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Kew liste
-World Checklist of Selected Plant Families (WCSP)  (30 août 2012)[4]
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Selon Kew liste</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">World Checklist of Selected Plant Families (WCSP)  (30 août 2012)
 Aglaodorum Schott (1858)
 Aglaonema Schott (1829)
 Alloschemone Schott (1858)
@@ -761,8 +824,43 @@
 Zantedeschia  Spreng. (1826)
 Zomicarpa  Schott (1856)
 Zomicarpella  N. E. Brown (1881)
-Selon APWebsite
-Angiosperm Phylogeny Website                        (17 mai 2010)[5]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Araceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Selon APWebsite</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angiosperm Phylogeny Website                        (17 mai 2010)
 Aglaodorum Schott
 Aglaonema Schott
 Alloschemone Schott
@@ -872,8 +970,43 @@
 Zantedeschia Spreng.
 Zomicarpa Schott
 Zomicarpella N. E. Brown
-Selon NCBI
-NCBI  (14 avr. 2010)[6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Araceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Selon NCBI</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NCBI  (14 avr. 2010)
 sous-famille Aroideae
 tribu Areae
 Arum
@@ -1015,8 +1148,43 @@
 Piptospatha
 Schismatoglottis
 Schottarum
-Selon Delta-angio
-DELTA Angio           (14 avr. 2010)[7]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Araceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Selon Delta-angio</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DELTA Angio           (14 avr. 2010)
 Aglaodorum
 Aglaonema
 Alloschemone
@@ -1123,8 +1291,43 @@
 Zantedeschia
 Zomicarpa
 Zomicarpella
-Selon ITIS
-ITIS      (14 avr. 2010)[8]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Araceae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araceae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ITIS      (14 avr. 2010)
 Aglaodorum Schott
 Aglaonema Schott
 Alocasia (Schott) G. Don
@@ -1166,33 +1369,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Araceae</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Araceae</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie basée sur l'Angiosperm Phylogeny Website[9].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie basée sur l'Angiosperm Phylogeny Website.
 </t>
         </is>
       </c>
